--- a/2024_2025/BoxScores/March.xlsx
+++ b/2024_2025/BoxScores/March.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\NHLStats\2024_2025\BoxScores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F28DECA-224E-42D0-A1CF-1536BB50F2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D0F56B-AFD3-49DF-8817-6ADDCB932CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" firstSheet="5" activeTab="14" xr2:uid="{7901B5C0-98B5-4042-9E0B-86E022D78A84}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="2" xr2:uid="{7901B5C0-98B5-4042-9E0B-86E022D78A84}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3548" uniqueCount="951">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3832" uniqueCount="951">
   <si>
     <t>Winnipeg Jets</t>
   </si>
@@ -4826,10 +4826,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F34BAC3F-0DAF-488B-810A-B2FFC5F11861}">
-  <dimension ref="A1:AA19"/>
+  <dimension ref="A1:AA13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4873,102 +4873,102 @@
       </c>
     </row>
     <row r="3" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
+      <c r="A3" s="12" t="s">
+        <v>19</v>
+      </c>
       <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
+      <c r="C3" s="12" t="s">
+        <v>4</v>
+      </c>
       <c r="D3" s="11"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
+      <c r="A4" s="10" t="s">
+        <v>29</v>
+      </c>
       <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
+      <c r="C4" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
+      <c r="A5" s="10" t="s">
+        <v>5</v>
+      </c>
       <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
+      <c r="C5" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="D5" s="9"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
+      <c r="A6" s="10" t="s">
+        <v>6</v>
+      </c>
       <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
+      <c r="C6" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
+      <c r="A7" s="10" t="s">
+        <v>2</v>
+      </c>
       <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
+      <c r="C7" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
+      <c r="A8" s="10" t="s">
+        <v>20</v>
+      </c>
       <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
+      <c r="C8" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
+      <c r="A9" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
+      <c r="C9" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
+      <c r="A10" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
+      <c r="C10" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="D10" s="9"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="9"/>
+    <row r="11" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="9"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="9"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="9"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="9"/>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="7"/>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A13" s="6" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4977,14 +4977,14 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E17" xr:uid="{054731E0-37F7-438C-8D27-589839104BFB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E11" xr:uid="{054731E0-37F7-438C-8D27-589839104BFB}">
       <formula1>$AA$1:$AA$2</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{D837D605-6A4E-49D7-B45B-B55680D9C529}"/>
-    <hyperlink ref="A18" location="'Offense (3-13-25)'!A1" display="Offense" xr:uid="{A6D1A660-11BD-48AF-B86B-FF14DBEB8215}"/>
-    <hyperlink ref="A19" location="'Goalies (3-13-25)'!A1" display="Goalies" xr:uid="{DC9F3636-520C-425C-A04F-3B42B38086E2}"/>
+    <hyperlink ref="A12" location="'Offense (3-13-25)'!A1" display="Offense" xr:uid="{A6D1A660-11BD-48AF-B86B-FF14DBEB8215}"/>
+    <hyperlink ref="A13" location="'Goalies (3-13-25)'!A1" display="Goalies" xr:uid="{DC9F3636-520C-425C-A04F-3B42B38086E2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -4994,7 +4994,7 @@
           <x14:formula1>
             <xm:f>Index!$AA$1:$AA$32</xm:f>
           </x14:formula1>
-          <xm:sqref>A3:A17 C3:C17</xm:sqref>
+          <xm:sqref>C3:C11 A3:A11</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5004,10 +5004,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B81FE55-2174-4892-9011-8781D0336394}">
-  <dimension ref="A1:AA19"/>
+  <dimension ref="A1:AA10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5051,102 +5051,72 @@
       </c>
     </row>
     <row r="3" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
+      <c r="A3" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
+      <c r="C3" s="12" t="s">
+        <v>26</v>
+      </c>
       <c r="D3" s="11"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
+      <c r="A4" s="10" t="s">
+        <v>20</v>
+      </c>
       <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
+      <c r="C4" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
+      <c r="A5" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
+      <c r="C5" s="10" t="s">
+        <v>0</v>
+      </c>
       <c r="D5" s="9"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
+      <c r="A6" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
+      <c r="C6" s="10" t="s">
+        <v>27</v>
+      </c>
       <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
+      <c r="A7" s="10" t="s">
+        <v>15</v>
+      </c>
       <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
+      <c r="C7" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="D7" s="9"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="9"/>
+    <row r="8" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="9"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="9"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="9"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="9"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="9"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="9"/>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="7"/>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A10" s="6" t="s">
         <v>37</v>
       </c>
     </row>
@@ -5155,14 +5125,14 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E17" xr:uid="{C6A7C999-2529-484D-A886-A3D8FEF28F26}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E8" xr:uid="{C6A7C999-2529-484D-A886-A3D8FEF28F26}">
       <formula1>$AA$1:$AA$2</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{04B9B74F-8576-4BE5-98A6-29178E0C0B28}"/>
-    <hyperlink ref="A18" location="'Offense (3-14-25)'!A1" display="Offense" xr:uid="{DFE8DD4F-25B4-4361-BEFA-4AF234077C1A}"/>
-    <hyperlink ref="A19" location="'Goalies (3-14-25)'!A1" display="Goalies" xr:uid="{D4F6FA1E-A206-4EDD-8329-793A9ED30348}"/>
+    <hyperlink ref="A9" location="'Offense (3-14-25)'!A1" display="Offense" xr:uid="{DFE8DD4F-25B4-4361-BEFA-4AF234077C1A}"/>
+    <hyperlink ref="A10" location="'Goalies (3-14-25)'!A1" display="Goalies" xr:uid="{D4F6FA1E-A206-4EDD-8329-793A9ED30348}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -5172,7 +5142,7 @@
           <x14:formula1>
             <xm:f>Index!$AA$1:$AA$32</xm:f>
           </x14:formula1>
-          <xm:sqref>A3:A17 C3:C17</xm:sqref>
+          <xm:sqref>C3:C8 A3:A8</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5182,10 +5152,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D23509BD-BB7B-46C5-9C01-71A3CC7824C4}">
-  <dimension ref="A1:AA19"/>
+  <dimension ref="A1:AA15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5229,102 +5199,122 @@
       </c>
     </row>
     <row r="3" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
+      <c r="A3" s="12" t="s">
+        <v>2</v>
+      </c>
       <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
+      <c r="C3" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="D3" s="11"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
+      <c r="A4" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
+      <c r="C4" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
+      <c r="A5" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
+      <c r="C5" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="D5" s="9"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
+      <c r="A6" s="10" t="s">
+        <v>5</v>
+      </c>
       <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
+      <c r="C6" s="10" t="s">
+        <v>29</v>
+      </c>
       <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
+      <c r="A7" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
+      <c r="C7" s="10" t="s">
+        <v>4</v>
+      </c>
       <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
+      <c r="A8" s="10" t="s">
+        <v>19</v>
+      </c>
       <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
+      <c r="C8" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
+      <c r="A9" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
+      <c r="C9" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
+      <c r="A10" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
+      <c r="C10" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="D10" s="9"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
+      <c r="A11" s="10" t="s">
+        <v>6</v>
+      </c>
       <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
+      <c r="C11" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="D11" s="9"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
+      <c r="A12" s="10" t="s">
+        <v>15</v>
+      </c>
       <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
+      <c r="C12" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="D12" s="9"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="9"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="9"/>
+    <row r="13" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="9"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="9"/>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="7"/>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A15" s="6" t="s">
         <v>37</v>
       </c>
     </row>
@@ -5333,14 +5323,14 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E17" xr:uid="{1AE0A2E0-002C-4304-B5E9-A129DCA261ED}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E13" xr:uid="{1AE0A2E0-002C-4304-B5E9-A129DCA261ED}">
       <formula1>$AA$1:$AA$2</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{FAE57E43-3151-4383-AAC3-A8EFFBDC635E}"/>
-    <hyperlink ref="A18" location="'Offense (3-15-25)'!A1" display="Offense" xr:uid="{06A358D2-7F3C-432E-93A8-81FEE4D59D37}"/>
-    <hyperlink ref="A19" location="'Goalies (3-15-25)'!A1" display="Goalies" xr:uid="{6ACF12D9-D88C-4609-B3D6-4346289E23A7}"/>
+    <hyperlink ref="A14" location="'Offense (3-15-25)'!A1" display="Offense" xr:uid="{06A358D2-7F3C-432E-93A8-81FEE4D59D37}"/>
+    <hyperlink ref="A15" location="'Goalies (3-15-25)'!A1" display="Goalies" xr:uid="{6ACF12D9-D88C-4609-B3D6-4346289E23A7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -5350,7 +5340,7 @@
           <x14:formula1>
             <xm:f>Index!$AA$1:$AA$32</xm:f>
           </x14:formula1>
-          <xm:sqref>A3:A17 C3:C17</xm:sqref>
+          <xm:sqref>C3:C13 A3:A13</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5360,10 +5350,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBEAA00B-CCB6-4D38-B54E-91A9550E5075}">
-  <dimension ref="A1:AA19"/>
+  <dimension ref="A1:AA11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5407,102 +5397,82 @@
       </c>
     </row>
     <row r="3" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
+      <c r="A3" s="12" t="s">
+        <v>2</v>
+      </c>
       <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
+      <c r="C3" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="D3" s="11"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
+      <c r="A4" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
+      <c r="C4" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
+      <c r="A5" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
+      <c r="C5" s="10" t="s">
+        <v>6</v>
+      </c>
       <c r="D5" s="9"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
+      <c r="A6" s="10" t="s">
+        <v>20</v>
+      </c>
       <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
+      <c r="C6" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
+      <c r="A7" s="10" t="s">
+        <v>19</v>
+      </c>
       <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
+      <c r="C7" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
+      <c r="A8" s="10" t="s">
+        <v>74</v>
+      </c>
       <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
+      <c r="C8" s="10" t="s">
+        <v>3</v>
+      </c>
       <c r="D8" s="9"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="9"/>
+    <row r="9" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="9"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="9"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="9"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="9"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="9"/>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="7"/>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A11" s="6" t="s">
         <v>37</v>
       </c>
     </row>
@@ -5511,16 +5481,17 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E17" xr:uid="{0C41E0F2-7929-4E4C-B7E9-BF2B5BBB6B6A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E9" xr:uid="{0C41E0F2-7929-4E4C-B7E9-BF2B5BBB6B6A}">
       <formula1>$AA$1:$AA$2</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{B740C249-08F1-42D0-8CBB-26B1C836B35D}"/>
-    <hyperlink ref="A18" location="'Offense (3-16-25)'!A1" display="Offense" xr:uid="{45A150F6-A6B3-4DF6-950F-6F31D64884A7}"/>
-    <hyperlink ref="A19" location="'Goalies (3-16-25)'!A1" display="Goalies" xr:uid="{2DF246C8-A2F2-4403-B424-0EE6C6154525}"/>
+    <hyperlink ref="A10" location="'Offense (3-16-25)'!A1" display="Offense" xr:uid="{45A150F6-A6B3-4DF6-950F-6F31D64884A7}"/>
+    <hyperlink ref="A11" location="'Goalies (3-16-25)'!A1" display="Goalies" xr:uid="{2DF246C8-A2F2-4403-B424-0EE6C6154525}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -5528,7 +5499,7 @@
           <x14:formula1>
             <xm:f>Index!$AA$1:$AA$32</xm:f>
           </x14:formula1>
-          <xm:sqref>A3:A17 C3:C17</xm:sqref>
+          <xm:sqref>A3:A9 C3:C9</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5538,10 +5509,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3B602F8-F061-4AC7-8EC1-F2614A9E336F}">
-  <dimension ref="A1:AA19"/>
+  <dimension ref="A1:AA9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5585,102 +5556,62 @@
       </c>
     </row>
     <row r="3" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
+      <c r="A3" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
+      <c r="C3" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="D3" s="11"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
+      <c r="A4" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
+      <c r="C4" s="10" t="s">
+        <v>5</v>
+      </c>
       <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
+      <c r="A5" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
+      <c r="C5" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="D5" s="9"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
+      <c r="A6" s="10" t="s">
+        <v>27</v>
+      </c>
       <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
+      <c r="C6" s="10" t="s">
+        <v>4</v>
+      </c>
       <c r="D6" s="9"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="9"/>
+    <row r="7" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="9"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="9"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="9"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="9"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="9"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="9"/>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="7"/>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A9" s="6" t="s">
         <v>37</v>
       </c>
     </row>
@@ -5689,14 +5620,14 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E17" xr:uid="{E6D81DE4-2DD2-42AD-948B-41FC630B6150}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E7" xr:uid="{E6D81DE4-2DD2-42AD-948B-41FC630B6150}">
       <formula1>$AA$1:$AA$2</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{E7453773-333E-4826-9478-00A58A211F09}"/>
-    <hyperlink ref="A18" location="'Offense (3-17-25)'!A1" display="Offense" xr:uid="{6A2CD27A-2BD7-4880-9BEA-A1CC7DF8074A}"/>
-    <hyperlink ref="A19" location="'Goalies (3-17-25)'!A1" display="Goalies" xr:uid="{FAEE4048-D0D4-4AFF-BE88-FDF902528C2F}"/>
+    <hyperlink ref="A8" location="'Offense (3-17-25)'!A1" display="Offense" xr:uid="{6A2CD27A-2BD7-4880-9BEA-A1CC7DF8074A}"/>
+    <hyperlink ref="A9" location="'Goalies (3-17-25)'!A1" display="Goalies" xr:uid="{FAEE4048-D0D4-4AFF-BE88-FDF902528C2F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -5706,7 +5637,7 @@
           <x14:formula1>
             <xm:f>Index!$AA$1:$AA$32</xm:f>
           </x14:formula1>
-          <xm:sqref>A3:A17 C3:C17</xm:sqref>
+          <xm:sqref>C3:C7 A3:A7</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5938,10 +5869,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CFE677B-C532-482F-A17D-8F88D3A85240}">
-  <dimension ref="A1:AA19"/>
+  <dimension ref="A1:AA13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5985,102 +5916,102 @@
       </c>
     </row>
     <row r="3" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
+      <c r="A3" s="12" t="s">
+        <v>11</v>
+      </c>
       <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
+      <c r="C3" s="12" t="s">
+        <v>16</v>
+      </c>
       <c r="D3" s="11"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
+      <c r="A4" s="10" t="s">
+        <v>27</v>
+      </c>
       <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
+      <c r="C4" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
+      <c r="A5" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
+      <c r="C5" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="D5" s="9"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
+      <c r="A6" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
+      <c r="C6" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
+      <c r="A7" s="10" t="s">
+        <v>6</v>
+      </c>
       <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
+      <c r="C7" s="10" t="s">
+        <v>15</v>
+      </c>
       <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
+      <c r="A8" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
+      <c r="C8" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
+      <c r="A9" s="10" t="s">
+        <v>7</v>
+      </c>
       <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
+      <c r="C9" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
+      <c r="A10" s="10" t="s">
+        <v>74</v>
+      </c>
       <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
+      <c r="C10" s="10" t="s">
+        <v>20</v>
+      </c>
       <c r="D10" s="9"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="9"/>
+    <row r="11" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="9"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="9"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="9"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="9"/>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="7"/>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A13" s="6" t="s">
         <v>37</v>
       </c>
     </row>
@@ -6089,14 +6020,14 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E17" xr:uid="{9BD37D74-F694-4BA8-B778-35FBB03B8E00}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E11" xr:uid="{9BD37D74-F694-4BA8-B778-35FBB03B8E00}">
       <formula1>$AA$1:$AA$2</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{64139A30-A4DA-4D54-A572-54A29B5C8419}"/>
-    <hyperlink ref="A18" location="'Offense (3-18-25)'!A1" display="Offense" xr:uid="{B1C1422D-D98A-4756-9D9B-10FC753F92EA}"/>
-    <hyperlink ref="A19" location="'Goalies (3-18-25)'!A1" display="Goalies" xr:uid="{864819DE-6E13-4024-AE85-7839BD542CC6}"/>
+    <hyperlink ref="A12" location="'Offense (3-18-25)'!A1" display="Offense" xr:uid="{B1C1422D-D98A-4756-9D9B-10FC753F92EA}"/>
+    <hyperlink ref="A13" location="'Goalies (3-18-25)'!A1" display="Goalies" xr:uid="{864819DE-6E13-4024-AE85-7839BD542CC6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -6106,7 +6037,7 @@
           <x14:formula1>
             <xm:f>Index!$AA$1:$AA$32</xm:f>
           </x14:formula1>
-          <xm:sqref>A3:A17 C3:C17</xm:sqref>
+          <xm:sqref>C3:C11 A3:A11</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6116,10 +6047,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E2A6C56-85CD-4904-8D65-538FE17C771E}">
-  <dimension ref="A1:AA19"/>
+  <dimension ref="A1:AA6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6163,102 +6094,32 @@
       </c>
     </row>
     <row r="3" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
+      <c r="A3" s="12" t="s">
+        <v>24</v>
+      </c>
       <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
+      <c r="C3" s="12" t="s">
+        <v>4</v>
+      </c>
       <c r="D3" s="11"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="9"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="9"/>
+    <row r="4" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="9"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="9"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="9"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="9"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="9"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="9"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="9"/>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="7"/>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A6" s="6" t="s">
         <v>37</v>
       </c>
     </row>
@@ -6267,14 +6128,14 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E17" xr:uid="{52918D6D-2904-4B3D-8C19-D956B2335FA5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E4" xr:uid="{52918D6D-2904-4B3D-8C19-D956B2335FA5}">
       <formula1>$AA$1:$AA$2</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{3226B97B-75BC-4D22-B6A7-17DFF050EE8D}"/>
-    <hyperlink ref="A18" location="'Offense (3-19-25)'!A1" display="Offense" xr:uid="{7EC6BB56-67C0-4E0F-8030-DA73387C1FE5}"/>
-    <hyperlink ref="A19" location="'Goalies (3-19-25)'!A1" display="Goalies" xr:uid="{B8D915BF-CB82-43FB-B20F-2B546FD485CD}"/>
+    <hyperlink ref="A5" location="'Offense (3-19-25)'!A1" display="Offense" xr:uid="{7EC6BB56-67C0-4E0F-8030-DA73387C1FE5}"/>
+    <hyperlink ref="A6" location="'Goalies (3-19-25)'!A1" display="Goalies" xr:uid="{B8D915BF-CB82-43FB-B20F-2B546FD485CD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -6284,7 +6145,7 @@
           <x14:formula1>
             <xm:f>Index!$AA$1:$AA$32</xm:f>
           </x14:formula1>
-          <xm:sqref>A3:A17 C3:C17</xm:sqref>
+          <xm:sqref>C3:C4 A3:A4</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6294,10 +6155,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5570142B-2104-4885-AD9C-4B208CFCF30D}">
-  <dimension ref="A1:AA19"/>
+  <dimension ref="A1:AA18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6341,102 +6202,152 @@
       </c>
     </row>
     <row r="3" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
+      <c r="A3" s="12" t="s">
+        <v>24</v>
+      </c>
       <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
+      <c r="C3" s="12" t="s">
+        <v>11</v>
+      </c>
       <c r="D3" s="11"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
+      <c r="A4" s="10" t="s">
+        <v>27</v>
+      </c>
       <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
+      <c r="C4" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
+      <c r="A5" s="10" t="s">
+        <v>4</v>
+      </c>
       <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
+      <c r="C5" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="D5" s="9"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
+      <c r="A6" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
+      <c r="C6" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
+      <c r="A7" s="10" t="s">
+        <v>19</v>
+      </c>
       <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
+      <c r="C7" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
+      <c r="A8" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
+      <c r="C8" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
+      <c r="A9" s="10" t="s">
+        <v>3</v>
+      </c>
       <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
+      <c r="C9" s="10" t="s">
+        <v>6</v>
+      </c>
       <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
+      <c r="A10" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
+      <c r="C10" s="10" t="s">
+        <v>15</v>
+      </c>
       <c r="D10" s="9"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
+      <c r="A11" s="10" t="s">
+        <v>5</v>
+      </c>
       <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
+      <c r="C11" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="D11" s="9"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
+      <c r="A12" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
+      <c r="C12" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="D12" s="9"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
+      <c r="A13" s="10" t="s">
+        <v>0</v>
+      </c>
       <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
+      <c r="C13" s="10" t="s">
+        <v>20</v>
+      </c>
       <c r="D13" s="9"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
+      <c r="A14" s="10" t="s">
+        <v>28</v>
+      </c>
       <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
+      <c r="C14" s="10" t="s">
+        <v>74</v>
+      </c>
       <c r="D14" s="9"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
+      <c r="A15" s="10" t="s">
+        <v>29</v>
+      </c>
       <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
+      <c r="C15" s="10" t="s">
+        <v>2</v>
+      </c>
       <c r="D15" s="9"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="9"/>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="7"/>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="1:1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
         <v>37</v>
       </c>
     </row>
@@ -6445,14 +6356,14 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E17" xr:uid="{F505670B-4BA9-47AF-9231-DC9686D529C9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E16" xr:uid="{F505670B-4BA9-47AF-9231-DC9686D529C9}">
       <formula1>$AA$1:$AA$2</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{9339FB4E-5E26-4CA4-A350-8E1ACC26D797}"/>
-    <hyperlink ref="A18" location="'Offense (3-20-25)'!A1" display="Offense" xr:uid="{09F293B9-C8CF-4030-8DAE-5887FA2D5C44}"/>
-    <hyperlink ref="A19" location="'Goalies (3-20-25)'!A1" display="Goalies" xr:uid="{26274A68-7866-47F2-B809-D2D04A66D91D}"/>
+    <hyperlink ref="A17" location="'Offense (3-20-25)'!A1" display="Offense" xr:uid="{09F293B9-C8CF-4030-8DAE-5887FA2D5C44}"/>
+    <hyperlink ref="A18" location="'Goalies (3-20-25)'!A1" display="Goalies" xr:uid="{26274A68-7866-47F2-B809-D2D04A66D91D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -6462,7 +6373,7 @@
           <x14:formula1>
             <xm:f>Index!$AA$1:$AA$32</xm:f>
           </x14:formula1>
-          <xm:sqref>A3:A17 C3:C17</xm:sqref>
+          <xm:sqref>C3:C16 A3:A16</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6472,10 +6383,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB0F575A-CF60-4C61-83BB-6B08AF701E68}">
-  <dimension ref="A1:AA19"/>
+  <dimension ref="A1:AA5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6518,103 +6429,23 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="11"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="9"/>
+    <row r="3" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="9"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="9"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="9"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="9"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="9"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="9"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="9"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="9"/>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="7"/>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A5" s="6" t="s">
         <v>37</v>
       </c>
     </row>
@@ -6623,14 +6454,14 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E17" xr:uid="{1AC46C09-30FF-46EE-BF3F-6257455B8CD4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3" xr:uid="{1AC46C09-30FF-46EE-BF3F-6257455B8CD4}">
       <formula1>$AA$1:$AA$2</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{A0649B58-F312-4CDE-8FD6-479841351AD7}"/>
-    <hyperlink ref="A18" location="'Offense (3-21-25)'!A1" display="Offense" xr:uid="{4A272541-3CDC-4758-A9D7-1B3BBE178060}"/>
-    <hyperlink ref="A19" location="'Goalies (3-21-25)'!A1" display="Goalies" xr:uid="{3E014FC7-A506-4E3B-9311-A4F6B8BB5B85}"/>
+    <hyperlink ref="A4" location="'Offense (3-21-25)'!A1" display="Offense" xr:uid="{4A272541-3CDC-4758-A9D7-1B3BBE178060}"/>
+    <hyperlink ref="A5" location="'Goalies (3-21-25)'!A1" display="Goalies" xr:uid="{3E014FC7-A506-4E3B-9311-A4F6B8BB5B85}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -6640,7 +6471,7 @@
           <x14:formula1>
             <xm:f>Index!$AA$1:$AA$32</xm:f>
           </x14:formula1>
-          <xm:sqref>A3:A17 C3:C17</xm:sqref>
+          <xm:sqref>A3 C3</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6650,10 +6481,10 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1FD4CD9-4339-41E6-A3C7-AD802B0114F0}">
-  <dimension ref="A1:AA19"/>
+  <dimension ref="A1:AA18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6697,102 +6528,152 @@
       </c>
     </row>
     <row r="3" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
+      <c r="A3" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
+      <c r="C3" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="D3" s="11"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
+      <c r="A4" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
+      <c r="C4" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
+      <c r="A5" s="10" t="s">
+        <v>28</v>
+      </c>
       <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
+      <c r="C5" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="D5" s="9"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
+      <c r="A6" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
+      <c r="C6" s="10" t="s">
+        <v>6</v>
+      </c>
       <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
+      <c r="A7" s="10" t="s">
+        <v>27</v>
+      </c>
       <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
+      <c r="C7" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
+      <c r="A8" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
+      <c r="C8" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
+      <c r="A9" s="10" t="s">
+        <v>19</v>
+      </c>
       <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
+      <c r="C9" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
+      <c r="A10" s="10" t="s">
+        <v>5</v>
+      </c>
       <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
+      <c r="C10" s="10" t="s">
+        <v>74</v>
+      </c>
       <c r="D10" s="9"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
+      <c r="A11" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
+      <c r="C11" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="D11" s="9"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
+      <c r="A12" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
+      <c r="C12" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="D12" s="9"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
+      <c r="A13" s="10" t="s">
+        <v>4</v>
+      </c>
       <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
+      <c r="C13" s="10" t="s">
+        <v>15</v>
+      </c>
       <c r="D13" s="9"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
+      <c r="A14" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
+      <c r="C14" s="10" t="s">
+        <v>2</v>
+      </c>
       <c r="D14" s="9"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
+      <c r="A15" s="10" t="s">
+        <v>7</v>
+      </c>
       <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
+      <c r="C15" s="10" t="s">
+        <v>20</v>
+      </c>
       <c r="D15" s="9"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="9"/>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="7"/>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="1:1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
         <v>37</v>
       </c>
     </row>
@@ -6801,14 +6682,14 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E17" xr:uid="{E55E7654-4772-4818-AED5-EA9879965326}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E16" xr:uid="{E55E7654-4772-4818-AED5-EA9879965326}">
       <formula1>$AA$1:$AA$2</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{19457A4E-637B-417F-A2C1-5D9D463C2F9D}"/>
-    <hyperlink ref="A18" location="'Offense (3-22-25)'!A1" display="Offense" xr:uid="{4D32DDA9-5544-4D72-8461-A2F0570842D5}"/>
-    <hyperlink ref="A19" location="'Goalies (3-22-25)'!A1" display="Goalies" xr:uid="{D6A3C333-6948-4E34-959F-2AC7215C90BF}"/>
+    <hyperlink ref="A17" location="'Offense (3-22-25)'!A1" display="Offense" xr:uid="{4D32DDA9-5544-4D72-8461-A2F0570842D5}"/>
+    <hyperlink ref="A18" location="'Goalies (3-22-25)'!A1" display="Goalies" xr:uid="{D6A3C333-6948-4E34-959F-2AC7215C90BF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -6818,7 +6699,7 @@
           <x14:formula1>
             <xm:f>Index!$AA$1:$AA$32</xm:f>
           </x14:formula1>
-          <xm:sqref>A3:A17 C3:C17</xm:sqref>
+          <xm:sqref>C3:C16 A3:A16</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6828,10 +6709,10 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03754693-E651-47A7-8ED2-E62A2FD0CF76}">
-  <dimension ref="A1:AA19"/>
+  <dimension ref="A1:AA11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6875,102 +6756,82 @@
       </c>
     </row>
     <row r="3" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
+      <c r="A3" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
+      <c r="C3" s="12" t="s">
+        <v>25</v>
+      </c>
       <c r="D3" s="11"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
+      <c r="A4" s="10" t="s">
+        <v>28</v>
+      </c>
       <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
+      <c r="C4" s="10" t="s">
+        <v>0</v>
+      </c>
       <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
+      <c r="A5" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
+      <c r="C5" s="10" t="s">
+        <v>19</v>
+      </c>
       <c r="D5" s="9"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
+      <c r="A6" s="10" t="s">
+        <v>15</v>
+      </c>
       <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
+      <c r="C6" s="10" t="s">
+        <v>6</v>
+      </c>
       <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
+      <c r="A7" s="10" t="s">
+        <v>5</v>
+      </c>
       <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
+      <c r="C7" s="10" t="s">
+        <v>2</v>
+      </c>
       <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
+      <c r="A8" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
+      <c r="C8" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="D8" s="9"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="9"/>
+    <row r="9" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="9"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="9"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="9"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="9"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="9"/>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="7"/>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A11" s="6" t="s">
         <v>37</v>
       </c>
     </row>
@@ -6979,14 +6840,14 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E17" xr:uid="{353E0E1A-E8A7-4511-B4C2-7971AA4E2199}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E9" xr:uid="{353E0E1A-E8A7-4511-B4C2-7971AA4E2199}">
       <formula1>$AA$1:$AA$2</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{1429DF42-60B1-4320-8D7D-68130C846A72}"/>
-    <hyperlink ref="A18" location="'Offense (3-23-25)'!A1" display="Offense" xr:uid="{24B3221A-FA13-4634-89AE-86B505A8D5A2}"/>
-    <hyperlink ref="A19" location="'Goalies (3-23-25)'!A1" display="Goalies" xr:uid="{8A97E64D-30A5-4CCD-AF8B-51AC05BB35A7}"/>
+    <hyperlink ref="A10" location="'Offense (3-23-25)'!A1" display="Offense" xr:uid="{24B3221A-FA13-4634-89AE-86B505A8D5A2}"/>
+    <hyperlink ref="A11" location="'Goalies (3-23-25)'!A1" display="Goalies" xr:uid="{8A97E64D-30A5-4CCD-AF8B-51AC05BB35A7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -6996,7 +6857,7 @@
           <x14:formula1>
             <xm:f>Index!$AA$1:$AA$32</xm:f>
           </x14:formula1>
-          <xm:sqref>A3:A17 C3:C17</xm:sqref>
+          <xm:sqref>C3:C9 A3:A9</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7006,10 +6867,10 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E0486B7-1131-4102-9049-9758DAA44623}">
-  <dimension ref="A1:AA19"/>
+  <dimension ref="A1:AA8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7053,102 +6914,52 @@
       </c>
     </row>
     <row r="3" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
+      <c r="A3" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
+      <c r="C3" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D3" s="11"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
+      <c r="A4" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
+      <c r="C4" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
+      <c r="A5" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
+      <c r="C5" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="D5" s="9"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="9"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="9"/>
+    <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="9"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="9"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="9"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="9"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="9"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="9"/>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="7"/>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A8" s="6" t="s">
         <v>37</v>
       </c>
     </row>
@@ -7157,14 +6968,14 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E17" xr:uid="{6D95261A-A2FF-4098-BD39-6FE3AEB6AD12}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E6" xr:uid="{6D95261A-A2FF-4098-BD39-6FE3AEB6AD12}">
       <formula1>$AA$1:$AA$2</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{E3D874C8-5C2C-49B6-976B-F693564E7D1A}"/>
-    <hyperlink ref="A18" location="'Offense (3-24-25)'!A1" display="Offense" xr:uid="{BF87E681-19CB-4C17-85F5-8AE35AC71627}"/>
-    <hyperlink ref="A19" location="'Goalies (3-24-25)'!A1" display="Goalies" xr:uid="{2F082089-6510-4A50-9C5B-105F386157FC}"/>
+    <hyperlink ref="A7" location="'Offense (3-24-25)'!A1" display="Offense" xr:uid="{BF87E681-19CB-4C17-85F5-8AE35AC71627}"/>
+    <hyperlink ref="A8" location="'Goalies (3-24-25)'!A1" display="Goalies" xr:uid="{2F082089-6510-4A50-9C5B-105F386157FC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -7174,7 +6985,7 @@
           <x14:formula1>
             <xm:f>Index!$AA$1:$AA$32</xm:f>
           </x14:formula1>
-          <xm:sqref>A3:A17 C3:C17</xm:sqref>
+          <xm:sqref>C3:C6 A3:A6</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7184,10 +6995,10 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F90AEB8F-7355-47ED-83AB-F2E56008559F}">
-  <dimension ref="A1:AA19"/>
+  <dimension ref="A1:AA14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7231,102 +7042,112 @@
       </c>
     </row>
     <row r="3" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
+      <c r="A3" s="12" t="s">
+        <v>11</v>
+      </c>
       <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
+      <c r="C3" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="D3" s="11"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
+      <c r="A4" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
+      <c r="C4" s="10" t="s">
+        <v>4</v>
+      </c>
       <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
+      <c r="A5" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
+      <c r="C5" s="10" t="s">
+        <v>5</v>
+      </c>
       <c r="D5" s="9"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
+      <c r="A6" s="10" t="s">
+        <v>15</v>
+      </c>
       <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
+      <c r="C6" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
+      <c r="A7" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
+      <c r="C7" s="10" t="s">
+        <v>6</v>
+      </c>
       <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
+      <c r="A8" s="10" t="s">
+        <v>2</v>
+      </c>
       <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
+      <c r="C8" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
+      <c r="A9" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
+      <c r="C9" s="10" t="s">
+        <v>0</v>
+      </c>
       <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
+      <c r="A10" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
+      <c r="C10" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="D10" s="9"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
+      <c r="A11" s="10" t="s">
+        <v>7</v>
+      </c>
       <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
+      <c r="C11" s="10" t="s">
+        <v>27</v>
+      </c>
       <c r="D11" s="9"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="9"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="9"/>
+    <row r="12" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="9"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="9"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="9"/>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="7"/>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A14" s="6" t="s">
         <v>37</v>
       </c>
     </row>
@@ -7335,14 +7156,14 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E17" xr:uid="{93AA3E49-9624-430F-91A1-537B85133E66}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E12" xr:uid="{93AA3E49-9624-430F-91A1-537B85133E66}">
       <formula1>$AA$1:$AA$2</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{F1871768-33A7-461D-9D1A-B22208867D79}"/>
-    <hyperlink ref="A18" location="'Offense (3-25-25)'!A1" display="Offense" xr:uid="{A7C0D051-9D0C-4AB2-9569-6EEFBA31C8EC}"/>
-    <hyperlink ref="A19" location="'Goalies (3-25-25)'!A1" display="Goalies" xr:uid="{8B078E12-3E2C-4592-9CC3-A6235B21AC0B}"/>
+    <hyperlink ref="A13" location="'Offense (3-25-25)'!A1" display="Offense" xr:uid="{A7C0D051-9D0C-4AB2-9569-6EEFBA31C8EC}"/>
+    <hyperlink ref="A14" location="'Goalies (3-25-25)'!A1" display="Goalies" xr:uid="{8B078E12-3E2C-4592-9CC3-A6235B21AC0B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -7352,7 +7173,7 @@
           <x14:formula1>
             <xm:f>Index!$AA$1:$AA$32</xm:f>
           </x14:formula1>
-          <xm:sqref>A3:A17 C3:C17</xm:sqref>
+          <xm:sqref>C3:C12 A3:A12</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7362,10 +7183,10 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4086B78F-16CD-48BA-9CF0-D5B4BCC845A1}">
-  <dimension ref="A1:AA19"/>
+  <dimension ref="A1:AA8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7409,102 +7230,52 @@
       </c>
     </row>
     <row r="3" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
+      <c r="A3" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
+      <c r="C3" s="12" t="s">
+        <v>13</v>
+      </c>
       <c r="D3" s="11"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
+      <c r="A4" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
+      <c r="C4" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
+      <c r="A5" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
+      <c r="C5" s="10" t="s">
+        <v>20</v>
+      </c>
       <c r="D5" s="9"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="9"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="9"/>
+    <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="9"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="9"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="9"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="9"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="9"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="9"/>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="7"/>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A8" s="6" t="s">
         <v>37</v>
       </c>
     </row>
@@ -7513,14 +7284,14 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E17" xr:uid="{8B6B00FF-9DFA-4F73-B8D7-6609F27E5313}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E6" xr:uid="{8B6B00FF-9DFA-4F73-B8D7-6609F27E5313}">
       <formula1>$AA$1:$AA$2</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{84378E47-603D-4AC4-B2A2-D05DC11664C6}"/>
-    <hyperlink ref="A18" location="'Offense (3-26-25)'!A1" display="Offense" xr:uid="{3739246E-8000-4F12-A87F-76E788FD2A96}"/>
-    <hyperlink ref="A19" location="'Goalies (3-26-25)'!A1" display="Goalies" xr:uid="{76C9233C-188A-4CB1-8B03-A7C500C409D3}"/>
+    <hyperlink ref="A7" location="'Offense (3-26-25)'!A1" display="Offense" xr:uid="{3739246E-8000-4F12-A87F-76E788FD2A96}"/>
+    <hyperlink ref="A8" location="'Goalies (3-26-25)'!A1" display="Goalies" xr:uid="{76C9233C-188A-4CB1-8B03-A7C500C409D3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -7530,7 +7301,7 @@
           <x14:formula1>
             <xm:f>Index!$AA$1:$AA$32</xm:f>
           </x14:formula1>
-          <xm:sqref>A3:A17 C3:C17</xm:sqref>
+          <xm:sqref>C3:C6 A3:A6</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7540,10 +7311,10 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EC063EA-49AE-4BC9-8C1E-50692D5D80F2}">
-  <dimension ref="A1:AA19"/>
+  <dimension ref="A1:AA14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7587,102 +7358,112 @@
       </c>
     </row>
     <row r="3" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
+      <c r="A3" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
+      <c r="C3" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="D3" s="11"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
+      <c r="A4" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
+      <c r="C4" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
+      <c r="A5" s="10" t="s">
+        <v>74</v>
+      </c>
       <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
+      <c r="C5" s="10" t="s">
+        <v>5</v>
+      </c>
       <c r="D5" s="9"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
+      <c r="A6" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
+      <c r="C6" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
+      <c r="A7" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
+      <c r="C7" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
+      <c r="A8" s="10" t="s">
+        <v>6</v>
+      </c>
       <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
+      <c r="C8" s="10" t="s">
+        <v>15</v>
+      </c>
       <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
+      <c r="A9" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
+      <c r="C9" s="10" t="s">
+        <v>27</v>
+      </c>
       <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
+      <c r="A10" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
+      <c r="C10" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="D10" s="9"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
+      <c r="A11" s="10" t="s">
+        <v>20</v>
+      </c>
       <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
+      <c r="C11" s="10" t="s">
+        <v>7</v>
+      </c>
       <c r="D11" s="9"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="9"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="9"/>
+    <row r="12" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="9"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="9"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="9"/>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="7"/>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A14" s="6" t="s">
         <v>37</v>
       </c>
     </row>
@@ -7691,14 +7472,14 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E17" xr:uid="{6891B305-881C-4029-81AB-178015A860CF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E12" xr:uid="{6891B305-881C-4029-81AB-178015A860CF}">
       <formula1>$AA$1:$AA$2</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{1A381256-DF6D-4B79-A8E3-96B982E43674}"/>
-    <hyperlink ref="A18" location="'Offense (3-27-25)'!A1" display="Offense" xr:uid="{5010D3C2-73F8-461C-8563-E72424265636}"/>
-    <hyperlink ref="A19" location="'Goalies (3-27-25)'!A1" display="Goalies" xr:uid="{8A982C13-B217-401B-9DE3-EE6B2D344171}"/>
+    <hyperlink ref="A13" location="'Offense (3-27-25)'!A1" display="Offense" xr:uid="{5010D3C2-73F8-461C-8563-E72424265636}"/>
+    <hyperlink ref="A14" location="'Goalies (3-27-25)'!A1" display="Goalies" xr:uid="{8A982C13-B217-401B-9DE3-EE6B2D344171}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -7708,7 +7489,7 @@
           <x14:formula1>
             <xm:f>Index!$AA$1:$AA$32</xm:f>
           </x14:formula1>
-          <xm:sqref>A3:A17 C3:C17</xm:sqref>
+          <xm:sqref>C3:C12 A3:A12</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7720,7 +7501,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82695FB2-CA88-4767-9DA7-832F5FE9DAB0}">
   <dimension ref="A1:AA17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -7936,10 +7717,10 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E55A64D-02BF-412A-A846-BC6518A1DE97}">
-  <dimension ref="A1:AA19"/>
+  <dimension ref="A1:AA10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7983,102 +7764,72 @@
       </c>
     </row>
     <row r="3" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
+      <c r="A3" s="12" t="s">
+        <v>74</v>
+      </c>
       <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
+      <c r="C3" s="12" t="s">
+        <v>19</v>
+      </c>
       <c r="D3" s="11"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
+      <c r="A4" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
+      <c r="C4" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
+      <c r="A5" s="10" t="s">
+        <v>3</v>
+      </c>
       <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
+      <c r="C5" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="D5" s="9"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
+      <c r="A6" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
+      <c r="C6" s="10" t="s">
+        <v>0</v>
+      </c>
       <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
+      <c r="A7" s="10" t="s">
+        <v>2</v>
+      </c>
       <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
+      <c r="C7" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="D7" s="9"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="9"/>
+    <row r="8" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="9"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="9"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="9"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="9"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="9"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="9"/>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="7"/>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A10" s="6" t="s">
         <v>37</v>
       </c>
     </row>
@@ -8087,14 +7838,14 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E17" xr:uid="{504D1531-455C-42B0-9A44-BEBA1E9D17DB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E8" xr:uid="{504D1531-455C-42B0-9A44-BEBA1E9D17DB}">
       <formula1>$AA$1:$AA$2</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{919CFD6D-2236-483A-BB99-1449585F8774}"/>
-    <hyperlink ref="A18" location="'Offense (3-28-25)'!A1" display="Offense" xr:uid="{3C69A0D9-4A81-4312-AC93-6E085D8FA323}"/>
-    <hyperlink ref="A19" location="'Goalies (3-28-25)'!A1" display="Goalies" xr:uid="{D820DA59-3861-4CB7-9D19-7EBB8A754583}"/>
+    <hyperlink ref="A9" location="'Offense (3-28-25)'!A1" display="Offense" xr:uid="{3C69A0D9-4A81-4312-AC93-6E085D8FA323}"/>
+    <hyperlink ref="A10" location="'Goalies (3-28-25)'!A1" display="Goalies" xr:uid="{D820DA59-3861-4CB7-9D19-7EBB8A754583}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -8104,7 +7855,7 @@
           <x14:formula1>
             <xm:f>Index!$AA$1:$AA$32</xm:f>
           </x14:formula1>
-          <xm:sqref>A3:A17 C3:C17</xm:sqref>
+          <xm:sqref>C3:C8 A3:A8</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -8114,10 +7865,10 @@
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE84FD98-EDA6-4D89-9759-641FC45FE8CF}">
-  <dimension ref="A1:AA19"/>
+  <dimension ref="A1:AA15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8161,102 +7912,122 @@
       </c>
     </row>
     <row r="3" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
+      <c r="A3" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
+      <c r="C3" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="D3" s="11"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
+      <c r="A4" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
+      <c r="C4" s="10" t="s">
+        <v>5</v>
+      </c>
       <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
+      <c r="A5" s="10" t="s">
+        <v>6</v>
+      </c>
       <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
+      <c r="C5" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="D5" s="9"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
+      <c r="A6" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
+      <c r="C6" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
+      <c r="A7" s="10" t="s">
+        <v>2</v>
+      </c>
       <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
+      <c r="C7" s="10" t="s">
+        <v>15</v>
+      </c>
       <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
+      <c r="A8" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
+      <c r="C8" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
+      <c r="A9" s="10" t="s">
+        <v>4</v>
+      </c>
       <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
+      <c r="C9" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
+      <c r="A10" s="10" t="s">
+        <v>29</v>
+      </c>
       <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
+      <c r="C10" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="D10" s="9"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
+      <c r="A11" s="10" t="s">
+        <v>27</v>
+      </c>
       <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
+      <c r="C11" s="10" t="s">
+        <v>20</v>
+      </c>
       <c r="D11" s="9"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
+      <c r="A12" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
+      <c r="C12" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="D12" s="9"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="9"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="9"/>
+    <row r="13" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="9"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="9"/>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="7"/>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A15" s="6" t="s">
         <v>37</v>
       </c>
     </row>
@@ -8265,14 +8036,14 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E17" xr:uid="{2A3FA8F2-47C3-4F20-90E0-9D8005CD1588}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E13" xr:uid="{2A3FA8F2-47C3-4F20-90E0-9D8005CD1588}">
       <formula1>$AA$1:$AA$2</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{1304460E-6F4A-4002-ADBA-8319C7547B24}"/>
-    <hyperlink ref="A18" location="'Offense (3-29-25)'!A1" display="Offense" xr:uid="{9DB54620-F202-4E4C-B83A-D836330F054A}"/>
-    <hyperlink ref="A19" location="'Goalies (3-29-25)'!A1" display="Goalies" xr:uid="{742C2EF0-D60E-4A6C-BE10-9512F257A694}"/>
+    <hyperlink ref="A14" location="'Offense (3-29-25)'!A1" display="Offense" xr:uid="{9DB54620-F202-4E4C-B83A-D836330F054A}"/>
+    <hyperlink ref="A15" location="'Goalies (3-29-25)'!A1" display="Goalies" xr:uid="{742C2EF0-D60E-4A6C-BE10-9512F257A694}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -8282,7 +8053,7 @@
           <x14:formula1>
             <xm:f>Index!$AA$1:$AA$32</xm:f>
           </x14:formula1>
-          <xm:sqref>A3:A17 C3:C17</xm:sqref>
+          <xm:sqref>C3:C13 A3:A13</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -8292,10 +8063,10 @@
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E4450C1-B25E-4EA7-80ED-91B5DA088340}">
-  <dimension ref="A1:AA19"/>
+  <dimension ref="A1:AA12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8339,102 +8110,92 @@
       </c>
     </row>
     <row r="3" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
+      <c r="A3" s="12" t="s">
+        <v>16</v>
+      </c>
       <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
+      <c r="C3" s="12" t="s">
+        <v>19</v>
+      </c>
       <c r="D3" s="11"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
+      <c r="A4" s="10" t="s">
+        <v>28</v>
+      </c>
       <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
+      <c r="C4" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
+      <c r="A5" s="10" t="s">
+        <v>3</v>
+      </c>
       <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
+      <c r="C5" s="10" t="s">
+        <v>0</v>
+      </c>
       <c r="D5" s="9"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
+      <c r="A6" s="10" t="s">
+        <v>74</v>
+      </c>
       <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
+      <c r="C6" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
+      <c r="A7" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
+      <c r="C7" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
+      <c r="A8" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
+      <c r="C8" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
+      <c r="A9" s="10" t="s">
+        <v>4</v>
+      </c>
       <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
+      <c r="C9" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="D9" s="9"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="9"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="9"/>
+    <row r="10" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="9"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="9"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="9"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="9"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="9"/>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="7"/>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A12" s="6" t="s">
         <v>37</v>
       </c>
     </row>
@@ -8443,14 +8204,14 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E17" xr:uid="{2883DEC6-F81B-40C9-A385-02D8E5A35DA6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E10" xr:uid="{2883DEC6-F81B-40C9-A385-02D8E5A35DA6}">
       <formula1>$AA$1:$AA$2</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{46E70FBB-A47D-4025-BDDD-87786E3283AB}"/>
-    <hyperlink ref="A18" location="'Offense (3-30-25)'!A1" display="Offense" xr:uid="{3B43CFCE-3D0D-485E-A74E-847E774813E1}"/>
-    <hyperlink ref="A19" location="'Goalies (3-30-25)'!A1" display="Goalies" xr:uid="{57FBCF51-EB46-416E-AD68-6240DDAC4124}"/>
+    <hyperlink ref="A11" location="'Offense (3-30-25)'!A1" display="Offense" xr:uid="{3B43CFCE-3D0D-485E-A74E-847E774813E1}"/>
+    <hyperlink ref="A12" location="'Goalies (3-30-25)'!A1" display="Goalies" xr:uid="{57FBCF51-EB46-416E-AD68-6240DDAC4124}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -8460,7 +8221,7 @@
           <x14:formula1>
             <xm:f>Index!$AA$1:$AA$32</xm:f>
           </x14:formula1>
-          <xm:sqref>A3:A17 C3:C17</xm:sqref>
+          <xm:sqref>C3:C10 A3:A10</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -8470,7 +8231,7 @@
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7DD5D23-A7F0-4714-A2DA-CF33F25C8164}">
-  <dimension ref="A1:AA19"/>
+  <dimension ref="A1:AA8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
@@ -8517,102 +8278,52 @@
       </c>
     </row>
     <row r="3" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
+      <c r="A3" s="12" t="s">
+        <v>17</v>
+      </c>
       <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
+      <c r="C3" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="D3" s="11"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
+      <c r="A4" s="10" t="s">
+        <v>15</v>
+      </c>
       <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
+      <c r="C4" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
+      <c r="A5" s="10" t="s">
+        <v>27</v>
+      </c>
       <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
+      <c r="C5" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="D5" s="9"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="9"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="9"/>
+    <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="9"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="9"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="9"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="9"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="9"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="9"/>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="7"/>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A8" s="6" t="s">
         <v>37</v>
       </c>
     </row>
@@ -8621,14 +8332,14 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E17" xr:uid="{C1B0D2E4-E631-436A-82B4-E2DCA44B47D0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E6" xr:uid="{C1B0D2E4-E631-436A-82B4-E2DCA44B47D0}">
       <formula1>$AA$1:$AA$2</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{9B223DC6-210C-4816-BE71-633C8D570B6C}"/>
-    <hyperlink ref="A18" location="'Offense (3-31-25)'!A1" display="Offense" xr:uid="{72E97360-F797-415E-8295-2CDA8A6B6580}"/>
-    <hyperlink ref="A19" location="'Goalies (3-31-25)'!A1" display="Goalies" xr:uid="{323FDFA3-ADDE-4AA1-A557-6004B658DBB2}"/>
+    <hyperlink ref="A7" location="'Offense (3-31-25)'!A1" display="Offense" xr:uid="{72E97360-F797-415E-8295-2CDA8A6B6580}"/>
+    <hyperlink ref="A8" location="'Goalies (3-31-25)'!A1" display="Goalies" xr:uid="{323FDFA3-ADDE-4AA1-A557-6004B658DBB2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -8638,7 +8349,7 @@
           <x14:formula1>
             <xm:f>Index!$AA$1:$AA$32</xm:f>
           </x14:formula1>
-          <xm:sqref>A3:A17 C3:C17</xm:sqref>
+          <xm:sqref>C3:C6 A3:A6</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -8772,7 +8483,7 @@
     <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>30</v>
       </c>
@@ -8802,7 +8513,7 @@
       </c>
       <c r="N1" s="20"/>
     </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>58</v>
       </c>
@@ -8846,7 +8557,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>843</v>
       </c>
@@ -8890,7 +8601,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>836</v>
       </c>
@@ -8934,7 +8645,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>830</v>
       </c>
@@ -8978,7 +8689,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>823</v>
       </c>
@@ -9022,7 +8733,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>816</v>
       </c>
@@ -9066,7 +8777,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>809</v>
       </c>
@@ -9110,7 +8821,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>802</v>
       </c>
@@ -9154,7 +8865,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>796</v>
       </c>
@@ -9198,7 +8909,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>789</v>
       </c>
@@ -9242,7 +8953,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>782</v>
       </c>
@@ -9286,7 +8997,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>775</v>
       </c>
@@ -9330,7 +9041,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>769</v>
       </c>
@@ -9374,7 +9085,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>763</v>
       </c>
@@ -9418,7 +9129,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>756</v>
       </c>
@@ -9462,7 +9173,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>750</v>
       </c>
@@ -9506,7 +9217,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>744</v>
       </c>
@@ -9550,7 +9261,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>737</v>
       </c>
@@ -9594,7 +9305,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>730</v>
       </c>
@@ -9638,7 +9349,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>723</v>
       </c>
@@ -9682,7 +9393,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>716</v>
       </c>
@@ -9726,7 +9437,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>709</v>
       </c>
@@ -9770,7 +9481,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>704</v>
       </c>
@@ -9814,7 +9525,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C25" s="1" t="s">
         <v>698</v>
       </c>
@@ -9852,7 +9563,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C26" s="1" t="s">
         <v>692</v>
       </c>
@@ -9890,7 +9601,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C27" s="1" t="s">
         <v>686</v>
       </c>
@@ -9922,7 +9633,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E28" s="1" t="s">
         <v>681</v>
       </c>
@@ -9936,8 +9647,8 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:14" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:14" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="19" t="s">
         <v>23</v>
       </c>
@@ -9967,7 +9678,7 @@
       </c>
       <c r="N30" s="20"/>
     </row>
-    <row r="31" spans="1:14" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="13" t="s">
         <v>58</v>
       </c>
@@ -10011,7 +9722,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="32" spans="1:14" s="1" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>679</v>
       </c>
@@ -10055,7 +9766,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>672</v>
       </c>
@@ -10099,7 +9810,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>665</v>
       </c>
@@ -10143,7 +9854,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>659</v>
       </c>
@@ -10187,7 +9898,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="36" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>653</v>
       </c>
@@ -10231,7 +9942,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>647</v>
       </c>
@@ -10275,7 +9986,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>640</v>
       </c>
@@ -10319,7 +10030,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>633</v>
       </c>
@@ -10363,7 +10074,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>626</v>
       </c>
@@ -10407,7 +10118,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>619</v>
       </c>
@@ -10451,7 +10162,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>612</v>
       </c>
@@ -10495,7 +10206,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>605</v>
       </c>
@@ -10539,7 +10250,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>598</v>
       </c>
@@ -10583,7 +10294,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>591</v>
       </c>
@@ -10627,7 +10338,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="46" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>584</v>
       </c>
@@ -10671,7 +10382,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>577</v>
       </c>
@@ -10715,7 +10426,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="48" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>570</v>
       </c>
@@ -10759,7 +10470,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="49" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>563</v>
       </c>
@@ -10803,7 +10514,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="50" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>557</v>
       </c>
@@ -10847,7 +10558,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="51" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>550</v>
       </c>
@@ -10891,7 +10602,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="52" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>543</v>
       </c>
@@ -10935,7 +10646,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="53" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>536</v>
       </c>
@@ -10979,7 +10690,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="54" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>529</v>
       </c>
@@ -11017,7 +10728,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="55" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>523</v>
       </c>
@@ -11037,7 +10748,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="56" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M56" s="1" t="s">
         <v>520</v>
       </c>
@@ -11045,8 +10756,8 @@
         <v>77</v>
       </c>
     </row>
-    <row r="57" spans="1:14" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="58" spans="1:14" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="19" t="s">
         <v>16</v>
       </c>
@@ -11076,7 +10787,7 @@
       </c>
       <c r="N58" s="20"/>
     </row>
-    <row r="59" spans="1:14" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="13" t="s">
         <v>58</v>
       </c>
@@ -11120,7 +10831,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="60" spans="1:14" s="1" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>519</v>
       </c>
@@ -11164,7 +10875,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="61" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>512</v>
       </c>
@@ -11208,7 +10919,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="62" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>505</v>
       </c>
@@ -11252,7 +10963,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="63" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>498</v>
       </c>
@@ -11296,7 +11007,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="64" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>491</v>
       </c>
@@ -11340,7 +11051,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="65" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>484</v>
       </c>
@@ -11384,7 +11095,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="66" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>477</v>
       </c>
@@ -11428,7 +11139,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>470</v>
       </c>
@@ -11472,7 +11183,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="68" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>463</v>
       </c>
@@ -11516,7 +11227,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="69" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>456</v>
       </c>
@@ -11560,7 +11271,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="70" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>449</v>
       </c>
@@ -11604,7 +11315,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="71" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>442</v>
       </c>
@@ -11648,7 +11359,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="72" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>435</v>
       </c>
@@ -11692,7 +11403,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="73" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>428</v>
       </c>
@@ -11736,7 +11447,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="74" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>421</v>
       </c>
@@ -11780,7 +11491,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="75" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>414</v>
       </c>
@@ -11824,7 +11535,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="76" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>407</v>
       </c>
@@ -11868,7 +11579,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="77" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>400</v>
       </c>
@@ -11912,7 +11623,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="78" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>393</v>
       </c>
@@ -11956,7 +11667,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>386</v>
       </c>
@@ -12000,7 +11711,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="80" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>379</v>
       </c>
@@ -12044,7 +11755,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>372</v>
       </c>
@@ -12088,7 +11799,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>365</v>
       </c>
@@ -12132,7 +11843,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="83" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>358</v>
       </c>
@@ -12170,7 +11881,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="84" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>352</v>
       </c>
@@ -12202,7 +11913,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="85" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C85" s="1" t="s">
         <v>347</v>
       </c>
@@ -12216,7 +11927,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="86" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M86" s="1" t="s">
         <v>345</v>
       </c>
@@ -12224,8 +11935,8 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:14" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="88" spans="1:14" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="88" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="19" t="s">
         <v>9</v>
       </c>
@@ -12255,7 +11966,7 @@
       </c>
       <c r="N88" s="20"/>
     </row>
-    <row r="89" spans="1:14" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="13" t="s">
         <v>58</v>
       </c>
@@ -12299,7 +12010,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="90" spans="1:14" s="1" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>344</v>
       </c>
@@ -12343,7 +12054,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="91" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>337</v>
       </c>
@@ -12387,7 +12098,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="92" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>330</v>
       </c>
@@ -12431,7 +12142,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="93" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>323</v>
       </c>
@@ -12475,7 +12186,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="94" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>316</v>
       </c>
@@ -12519,7 +12230,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="95" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>309</v>
       </c>
@@ -12563,7 +12274,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="96" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>302</v>
       </c>
@@ -12607,7 +12318,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="97" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>295</v>
       </c>
@@ -12651,7 +12362,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="98" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>288</v>
       </c>
@@ -12695,7 +12406,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="99" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>281</v>
       </c>
@@ -12739,7 +12450,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="100" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>274</v>
       </c>
@@ -12783,7 +12494,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="101" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>126</v>
       </c>
@@ -12827,7 +12538,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="102" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>261</v>
       </c>
@@ -12871,7 +12582,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="103" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>254</v>
       </c>
@@ -12915,7 +12626,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="104" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>247</v>
       </c>
@@ -12959,7 +12670,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="105" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>240</v>
       </c>
@@ -13003,7 +12714,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="106" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>233</v>
       </c>
@@ -13047,7 +12758,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="107" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>226</v>
       </c>
@@ -13091,7 +12802,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="108" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>219</v>
       </c>
@@ -13135,7 +12846,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="109" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>212</v>
       </c>
@@ -13179,7 +12890,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="110" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>205</v>
       </c>
@@ -13223,7 +12934,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="111" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>198</v>
       </c>
@@ -13267,7 +12978,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="112" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>192</v>
       </c>
@@ -13305,7 +13016,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="113" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C113" s="1" t="s">
         <v>186</v>
       </c>
@@ -13325,7 +13036,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="114" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C114" s="1" t="s">
         <v>183</v>
       </c>
@@ -13339,8 +13050,8 @@
         <v>77</v>
       </c>
     </row>
-    <row r="115" spans="1:14" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="116" spans="1:14" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="116" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="19" t="s">
         <v>3</v>
       </c>
@@ -13358,7 +13069,7 @@
       </c>
       <c r="H116" s="20"/>
     </row>
-    <row r="117" spans="1:14" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="13" t="s">
         <v>58</v>
       </c>
@@ -13384,7 +13095,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="118" spans="1:14" s="1" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>180</v>
       </c>
@@ -13410,7 +13121,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="119" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>176</v>
       </c>
@@ -13436,7 +13147,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="120" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>172</v>
       </c>
@@ -13462,7 +13173,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="121" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>168</v>
       </c>
@@ -13488,7 +13199,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="122" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>164</v>
       </c>
@@ -13514,7 +13225,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="123" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>160</v>
       </c>
@@ -13540,7 +13251,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="124" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>156</v>
       </c>
@@ -13566,7 +13277,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="125" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>152</v>
       </c>
@@ -13592,7 +13303,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="126" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>148</v>
       </c>
@@ -13618,7 +13329,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="127" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>144</v>
       </c>
@@ -13644,7 +13355,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="128" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>140</v>
       </c>
@@ -13670,7 +13381,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="129" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>136</v>
       </c>
@@ -13696,7 +13407,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="130" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>132</v>
       </c>
@@ -13722,7 +13433,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="131" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>128</v>
       </c>
@@ -13748,7 +13459,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="132" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>124</v>
       </c>
@@ -13774,7 +13485,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="133" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>120</v>
       </c>
@@ -13800,7 +13511,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="134" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>116</v>
       </c>
@@ -13826,7 +13537,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="135" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>112</v>
       </c>
@@ -13852,7 +13563,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="136" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>108</v>
       </c>
@@ -13878,7 +13589,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="137" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>104</v>
       </c>
@@ -13904,7 +13615,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="138" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>100</v>
       </c>
@@ -13930,7 +13641,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="139" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>96</v>
       </c>
@@ -13956,7 +13667,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="140" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>91</v>
       </c>
@@ -13982,7 +13693,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="141" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>87</v>
       </c>
@@ -14008,7 +13719,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="142" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>82</v>
       </c>
@@ -14028,7 +13739,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="143" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C143" s="1" t="s">
         <v>78</v>
       </c>
@@ -14038,28 +13749,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="C116:D116"/>
-    <mergeCell ref="E116:F116"/>
-    <mergeCell ref="G116:H116"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="A116:B116"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="G58:H58"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="I88:J88"/>
     <mergeCell ref="K88:L88"/>
@@ -14070,6 +13759,28 @@
     <mergeCell ref="M88:N88"/>
     <mergeCell ref="K58:L58"/>
     <mergeCell ref="I58:J58"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C116:D116"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="G116:H116"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="G88:H88"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -14189,7 +13900,7 @@
     <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>30</v>
       </c>
@@ -14219,7 +13930,7 @@
       </c>
       <c r="N1" s="20"/>
     </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>58</v>
       </c>
@@ -14263,7 +13974,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>919</v>
       </c>
@@ -14307,7 +14018,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>912</v>
       </c>
@@ -14351,7 +14062,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G5" s="1" t="s">
         <v>905</v>
       </c>
@@ -14371,8 +14082,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:14" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
         <v>23</v>
       </c>
@@ -14402,7 +14113,7 @@
       </c>
       <c r="N7" s="20"/>
     </row>
-    <row r="8" spans="1:14" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>58</v>
       </c>
@@ -14446,7 +14157,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="1" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>902</v>
       </c>
@@ -14490,7 +14201,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>895</v>
       </c>
@@ -14534,7 +14245,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="K11" s="1" t="s">
         <v>888</v>
       </c>
@@ -14548,8 +14259,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:14" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="19" t="s">
         <v>16</v>
       </c>
@@ -14579,7 +14290,7 @@
       </c>
       <c r="N13" s="20"/>
     </row>
-    <row r="14" spans="1:14" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>58</v>
       </c>
@@ -14623,7 +14334,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="1" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>886</v>
       </c>
@@ -14667,7 +14378,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>879</v>
       </c>
@@ -14711,7 +14422,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>872</v>
       </c>
@@ -14737,8 +14448,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="1:14" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="19" t="s">
         <v>9</v>
       </c>
@@ -14768,7 +14479,7 @@
       </c>
       <c r="N19" s="20"/>
     </row>
-    <row r="20" spans="1:14" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
         <v>58</v>
       </c>
@@ -14812,7 +14523,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="1" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>868</v>
       </c>
@@ -14856,7 +14567,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>861</v>
       </c>
@@ -14900,7 +14611,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E23" s="1" t="s">
         <v>854</v>
       </c>
@@ -14920,8 +14631,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:14" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:14" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="19" t="s">
         <v>3</v>
       </c>
@@ -14939,7 +14650,7 @@
       </c>
       <c r="H25" s="20"/>
     </row>
-    <row r="26" spans="1:14" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
         <v>58</v>
       </c>
@@ -14965,7 +14676,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="27" spans="1:14" s="1" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>851</v>
       </c>
@@ -14991,7 +14702,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>847</v>
       </c>
@@ -15019,20 +14730,15 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="E25:F25"/>
@@ -15042,15 +14748,20 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="K19:L19"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A7:B7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
